--- a/PrisonersDilemma/experiment3/contest4/summary4.xlsx
+++ b/PrisonersDilemma/experiment3/contest4/summary4.xlsx
@@ -316,8 +316,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -364,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -383,6 +387,8 @@
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -402,6 +408,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -732,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B38" sqref="A35:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/PrisonersDilemma/experiment3/contest4/summary4.xlsx
+++ b/PrisonersDilemma/experiment3/contest4/summary4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Datetime</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Number of strategies</t>
-  </si>
-  <si>
-    <t>Str_numbers</t>
   </si>
   <si>
     <t>Strategy name</t>
@@ -194,9 +191,6 @@
   </si>
   <si>
     <t>WSLS</t>
-  </si>
-  <si>
-    <t>WSLS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -209,9 +203,6 @@
   </si>
   <si>
     <t>TFT</t>
-  </si>
-  <si>
-    <t>TFT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -219,20 +210,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戦略のタイプ</t>
-  </si>
-  <si>
-    <t>平均利得（セッション平均）</t>
-  </si>
-  <si>
-    <t>ALLD</t>
+    <t>average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Str No.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,45 +256,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,7 +274,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -358,17 +316,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="59">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -389,6 +360,15 @@
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -410,6 +390,15 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -738,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B38" sqref="A35:B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -805,31 +794,31 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -837,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>3.3535241602200001</v>
@@ -858,15 +847,15 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C9">
         <v>3.3263080140099999</v>
@@ -887,15 +876,15 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>3.2590686627799998</v>
@@ -921,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>3.2588865087599999</v>
@@ -942,15 +931,15 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
         <v>3.2562991033799999</v>
@@ -976,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>3.2403877236900001</v>
@@ -997,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1005,7 +994,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>3.2384052811399999</v>
@@ -1026,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1034,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>3.2158128839</v>
@@ -1055,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1063,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>3.2158128839</v>
@@ -1084,15 +1073,15 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C17">
         <v>3.2155475042499999</v>
@@ -1113,15 +1102,15 @@
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C18">
         <v>3.2133349552100001</v>
@@ -1142,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1150,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>3.1977636486900001</v>
@@ -1171,15 +1160,15 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C20">
         <v>3.19707356804</v>
@@ -1205,7 +1194,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>3.1927682877999999</v>
@@ -1226,15 +1215,15 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>17</v>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C22">
         <v>3.1914653285900001</v>
@@ -1259,8 +1248,8 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>36</v>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C23">
         <v>3.1885692888800001</v>
@@ -1285,8 +1274,8 @@
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C24">
         <v>3.1669792230699998</v>
@@ -1307,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1315,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>3.1612256118299999</v>
@@ -1336,15 +1325,15 @@
         <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>24</v>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C26">
         <v>3.15978798065</v>
@@ -1365,15 +1354,15 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>37</v>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C27">
         <v>3.1585489330900001</v>
@@ -1398,8 +1387,8 @@
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>23</v>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C28">
         <v>3.1575088857</v>
@@ -1420,15 +1409,15 @@
         <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
         <v>8</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C29">
         <v>3.1215297250399998</v>
@@ -1449,15 +1438,15 @@
         <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
         <v>9</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C30">
         <v>3.0883601930100002</v>
@@ -1478,15 +1467,15 @@
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C31">
         <v>3.07294119696</v>
@@ -1507,42 +1496,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="6">
-        <v>3.2305096655477774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="6">
-        <v>3.1669079037640002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="6">
-        <v>3.3263080140099999</v>
+      <c r="C33">
+        <f>AVERAGE(C8:C31)</f>
+        <v>3.2019962313579171</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(E8:E31)</f>
+        <v>3.0559294973591666</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(G8:G31)</f>
+        <v>3.1909573912987503</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A7:I31">
     <sortState ref="A8:I31">
-      <sortCondition ref="D7:D31"/>
+      <sortCondition ref="B7:B31"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
